--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/110.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/110.xlsx
@@ -479,13 +479,13 @@
         <v>4.926903921445765</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.50332392646282</v>
+        <v>-21.57136912403654</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0006405946035013491</v>
+        <v>0.06908642133243964</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.812611016565338</v>
+        <v>-8.831472805057896</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>4.768710491141844</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.6454229110497</v>
+        <v>-21.71677796627232</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1256720562179842</v>
+        <v>-0.05411166270695014</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.289770844203719</v>
+        <v>-8.284212043396037</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>4.572112663826135</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.89527071797652</v>
+        <v>-21.96360436695539</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2742343078829287</v>
+        <v>-0.1983080312397396</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.185605663897229</v>
+        <v>-8.162974451110282</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>4.368369200532108</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.97958164139647</v>
+        <v>-22.02276623905193</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3017056374681238</v>
+        <v>-0.2028939196809058</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.724694541518823</v>
+        <v>-7.693101779144819</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>4.179720113577328</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.95735621617948</v>
+        <v>-21.98688581765564</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4388227240576205</v>
+        <v>-0.3343642033391157</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.986102496120249</v>
+        <v>-6.923752991546482</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>4.036679161036382</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.20692046070802</v>
+        <v>-22.24033682264338</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5381673435933322</v>
+        <v>-0.4403725392344325</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.400756370965122</v>
+        <v>-6.321857578146849</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>3.966227399621735</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.58377977703042</v>
+        <v>-22.61924463284302</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7152960623816608</v>
+        <v>-0.6085885985043752</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.989365999141697</v>
+        <v>-5.914295298700218</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>3.992427786091376</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.82772655266888</v>
+        <v>-22.83768057064992</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8462041102501755</v>
+        <v>-0.7552343594774891</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.716730531208185</v>
+        <v>-5.631427139394253</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.132420192607117</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31188490269946</v>
+        <v>-23.30912750282652</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9365578461576306</v>
+        <v>-0.8543638627110565</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.433813481833551</v>
+        <v>-5.369992386192843</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>4.393057173053101</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75379245538617</v>
+        <v>-23.74988124989264</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.178138342472499</v>
+        <v>-1.097303502934927</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.122241963211928</v>
+        <v>-5.067401973185743</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>4.765684149430311</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23493917718674</v>
+        <v>-24.23522273958502</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.123518357755325</v>
+        <v>-1.043768877742209</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.959540703687866</v>
+        <v>-4.899537922410218</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.231358573061289</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85033313854592</v>
+        <v>-24.85465502061628</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.047719195290676</v>
+        <v>-0.9781632945950768</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.86104188234013</v>
+        <v>-4.793974486139791</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.760804877901085</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43908201248042</v>
+        <v>-25.44225497793705</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9466927573927453</v>
+        <v>-0.8642641016165593</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.748012932583923</v>
+        <v>-4.686225663799853</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.314348176336732</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07845655252183</v>
+        <v>-26.08847412759214</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9141613057002932</v>
+        <v>-0.8526282652733017</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.729190256146301</v>
+        <v>-4.639804543598495</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>6.853130521029739</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.84188475280433</v>
+        <v>-26.8275257396362</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8380590248098951</v>
+        <v>-0.7769219939391238</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.643837974263699</v>
+        <v>-4.546419623433552</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.340991945459447</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64403877647967</v>
+        <v>-27.65077582794228</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7402006633617255</v>
+        <v>-0.6849744417930543</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.670976851381945</v>
+        <v>-4.569925968449679</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.744724030590685</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.48279923907103</v>
+        <v>-28.4652697049497</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5951878306821613</v>
+        <v>-0.5479991364026982</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.870531444668812</v>
+        <v>-4.752823715340968</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.043010794649215</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17572062682232</v>
+        <v>-29.16695219300651</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3163139899864657</v>
+        <v>-0.270538218691541</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.101625021254148</v>
+        <v>-4.967788458272351</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.224996554517562</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59929684826153</v>
+        <v>-29.6099842172726</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1352740657046052</v>
+        <v>-0.09095032944915427</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.42113628702764</v>
+        <v>-5.272256249916347</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.286434016081126</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.20957201943105</v>
+        <v>-30.23810181900294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3114442697391475</v>
+        <v>0.35803161617398</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.699374556830637</v>
+        <v>-5.546206860697058</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.234107695687999</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73863589753426</v>
+        <v>-30.75336403072084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3256321676669346</v>
+        <v>0.3749035788717035</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.971130003528105</v>
+        <v>-5.809215874109615</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.082936630603857</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10103842055119</v>
+        <v>-31.1142558506159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6049949090493216</v>
+        <v>0.6417993527434575</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.278809872683663</v>
+        <v>-6.106594605796584</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.848169338083303</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.3001432252063</v>
+        <v>-31.32908859036187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8125625845910627</v>
+        <v>0.8673536845485785</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.497407147717164</v>
+        <v>-6.321544681707366</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.547963060815978</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.59139847579246</v>
+        <v>-31.60520258668119</v>
       </c>
       <c r="F25" t="n">
-        <v>1.031203860686366</v>
+        <v>1.087921229349446</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.528281226081732</v>
+        <v>-6.369711177360212</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.204723538414139</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49000780688295</v>
+        <v>-31.4884408801821</v>
       </c>
       <c r="F26" t="n">
-        <v>1.076476064273999</v>
+        <v>1.137158417506147</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.650423284637868</v>
+        <v>-6.483766818558471</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.835228634224184</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.5784694971329</v>
+        <v>-31.56844703305573</v>
       </c>
       <c r="F27" t="n">
-        <v>1.325966973699535</v>
+        <v>1.367195968608229</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.937808886288862</v>
+        <v>-6.790155989901164</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.45403698568201</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40706824988917</v>
+        <v>-31.40588755473081</v>
       </c>
       <c r="F28" t="n">
-        <v>1.467156603009172</v>
+        <v>1.515332876675752</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.067528905488717</v>
+        <v>-6.906890806862492</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.078139033446632</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21488138995074</v>
+        <v>-31.21878526193397</v>
       </c>
       <c r="F29" t="n">
-        <v>1.495170612356595</v>
+        <v>1.535592921132247</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.35014772544447</v>
+        <v>-7.187813141435425</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.716028451917738</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07570358696684</v>
+        <v>-31.05756781599402</v>
       </c>
       <c r="F30" t="n">
-        <v>1.600543377359213</v>
+        <v>1.641215025485078</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.382385836724906</v>
+        <v>-7.236610318974104</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.370793812163734</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.81170699416716</v>
+        <v>-30.77902153875841</v>
       </c>
       <c r="F31" t="n">
-        <v>1.55297334054413</v>
+        <v>1.602225195721431</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.37662658663568</v>
+        <v>-7.237989018910573</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.048574278221175</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40983796321706</v>
+        <v>-30.38790343390864</v>
       </c>
       <c r="F32" t="n">
-        <v>1.504474392424334</v>
+        <v>1.551682642731265</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.401462741519609</v>
+        <v>-7.288023115186581</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.748392661590472</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.91103214861319</v>
+        <v>-29.86895246650965</v>
       </c>
       <c r="F33" t="n">
-        <v>1.480694263023659</v>
+        <v>1.534018660921101</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.661670353997422</v>
+        <v>-7.557549174752735</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.46505547466537</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30583665557839</v>
+        <v>-29.24447961939861</v>
       </c>
       <c r="F34" t="n">
-        <v>1.476299045850303</v>
+        <v>1.54476469801458</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.642857455573534</v>
+        <v>-7.534380171210425</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.197989805620618</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.8544468740733</v>
+        <v>-28.80552502685952</v>
       </c>
       <c r="F35" t="n">
-        <v>1.500514296862133</v>
+        <v>1.56872572066933</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.656224000347679</v>
+        <v>-7.568945449759514</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.943254782618627</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22914534029831</v>
+        <v>-28.16709650964686</v>
       </c>
       <c r="F36" t="n">
-        <v>1.404733763332402</v>
+        <v>1.456014556359473</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.552401050521873</v>
+        <v>-7.488868406286314</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.694518068901791</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56867229112274</v>
+        <v>-27.49116197625467</v>
       </c>
       <c r="F37" t="n">
-        <v>1.518637845317786</v>
+        <v>1.579623316975683</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.476117876377399</v>
+        <v>-7.419972521517749</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.450905947892343</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03899484265774</v>
+        <v>-26.98724470497145</v>
       </c>
       <c r="F38" t="n">
-        <v>1.383970151168614</v>
+        <v>1.439387044005095</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.448167424119247</v>
+        <v>-7.382625398061386</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.211071314322846</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.29198392743434</v>
+        <v>-26.24514235264243</v>
       </c>
       <c r="F39" t="n">
-        <v>1.436282524644604</v>
+        <v>1.488580231099993</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.424910418453333</v>
+        <v>-7.39123982816089</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.971999403890012</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.63246179009438</v>
+        <v>-25.58578155252907</v>
       </c>
       <c r="F40" t="n">
-        <v>1.467704171778267</v>
+        <v>1.548402119123565</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.126328991077103</v>
+        <v>-7.096701609463598</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.735267963103376</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.08651128227285</v>
+        <v>-25.05352026393491</v>
       </c>
       <c r="F41" t="n">
-        <v>1.498245797675884</v>
+        <v>1.552445327802503</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.159711129964398</v>
+        <v>-7.14294183641088</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.503127776913539</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.37863197801224</v>
+        <v>-24.33426912970185</v>
       </c>
       <c r="F42" t="n">
-        <v>1.510223864499826</v>
+        <v>1.575384548022068</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.893895826610232</v>
+        <v>-6.861056367485165</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.275560072710554</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.67760217237217</v>
+        <v>-23.63789854760595</v>
       </c>
       <c r="F43" t="n">
-        <v>1.458136385339714</v>
+        <v>1.520436999844811</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.885315619558797</v>
+        <v>-6.872276638244735</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.054853004425986</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.98896111013287</v>
+        <v>-22.93842344614956</v>
       </c>
       <c r="F44" t="n">
-        <v>1.573903178941393</v>
+        <v>1.6317987982594</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.797978400888228</v>
+        <v>-6.759189020406125</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.84385173134751</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.17199339565078</v>
+        <v>-22.13168842303993</v>
       </c>
       <c r="F45" t="n">
-        <v>1.62498352268692</v>
+        <v>1.674030039575811</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.680744905226475</v>
+        <v>-6.674213192052276</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.640778603673818</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.65919035438693</v>
+        <v>-21.6263166722138</v>
       </c>
       <c r="F46" t="n">
-        <v>1.633954850287709</v>
+        <v>1.681295103780047</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.542298008769177</v>
+        <v>-6.510314125845819</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.444473104619193</v>
       </c>
       <c r="E47" t="n">
-        <v>-21.00404876719973</v>
+        <v>-20.96600740476827</v>
       </c>
       <c r="F47" t="n">
-        <v>1.702122273033104</v>
+        <v>1.755524895040416</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.515276467815738</v>
+        <v>-6.486871337918962</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.254646214074843</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.3642195495197</v>
+        <v>-20.33271967827617</v>
       </c>
       <c r="F48" t="n">
-        <v>1.738252033779606</v>
+        <v>1.788051457726002</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.488553156281181</v>
+        <v>-6.449563326517534</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.066446816292903</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.62506037932457</v>
+        <v>-19.59338450383382</v>
       </c>
       <c r="F49" t="n">
-        <v>1.889258788878008</v>
+        <v>1.94140982512739</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.222791632002552</v>
+        <v>-6.166450716868224</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8760032902628045</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.2417377959241</v>
+        <v>-19.21183174091918</v>
       </c>
       <c r="F50" t="n">
-        <v>1.904277817973171</v>
+        <v>1.943380094894756</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.213292291660135</v>
+        <v>-6.151989034555889</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6827536199869879</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.65521342011405</v>
+        <v>-18.62545403531514</v>
       </c>
       <c r="F51" t="n">
-        <v>1.86697469557861</v>
+        <v>1.915160747258923</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.249984288196332</v>
+        <v>-6.183889804362509</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4839932198875594</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.12730334763144</v>
+        <v>-18.07516697840266</v>
       </c>
       <c r="F52" t="n">
-        <v>1.894377579067668</v>
+        <v>1.94804909645266</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.266905140962725</v>
+        <v>-6.20372939422845</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2793134321047527</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.74206427353914</v>
+        <v>-17.71281823446126</v>
       </c>
       <c r="F53" t="n">
-        <v>1.985298439771685</v>
+        <v>2.036999687389311</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.17564693878489</v>
+        <v>-6.092025365333178</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07300943723200481</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.12986772267092</v>
+        <v>-17.10806764105135</v>
       </c>
       <c r="F54" t="n">
-        <v>2.045804788756624</v>
+        <v>2.09534998434594</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.155250002136121</v>
+        <v>-6.080897985704079</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1318979041630159</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.88021058701191</v>
+        <v>-16.85558465942326</v>
       </c>
       <c r="F55" t="n">
-        <v>2.001657056748383</v>
+        <v>2.036095221118932</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.381987473603036</v>
+        <v>-6.309048380155532</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3308253781717483</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.3292488471518</v>
+        <v>-16.33689525389165</v>
       </c>
       <c r="F56" t="n">
-        <v>2.027862133555047</v>
+        <v>2.074948158690304</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.248258468772312</v>
+        <v>-6.165702698817586</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5158371508336346</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.23388387920575</v>
+        <v>-16.24255208838079</v>
       </c>
       <c r="F57" t="n">
-        <v>2.073119670122078</v>
+        <v>2.101686137245462</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.406041387388258</v>
+        <v>-6.318831282896229</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6810806456178619</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9807604376781</v>
+        <v>-15.97449761988158</v>
       </c>
       <c r="F58" t="n">
-        <v>1.944866352982298</v>
+        <v>1.978067598615518</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.569475997942357</v>
+        <v>-6.496140894938633</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.8209261972392025</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.71352732233253</v>
+        <v>-15.69638646425712</v>
       </c>
       <c r="F59" t="n">
-        <v>2.010564827259901</v>
+        <v>2.041937584324895</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.372781473672635</v>
+        <v>-6.294518251747061</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.9287328537779237</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44936450329938</v>
+        <v>-15.41641748602324</v>
       </c>
       <c r="F60" t="n">
-        <v>2.079617160248208</v>
+        <v>2.093785502148528</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.402047068777988</v>
+        <v>-6.308271028063692</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.000420334048564</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29287717150316</v>
+        <v>-15.26438892848965</v>
       </c>
       <c r="F61" t="n">
-        <v>2.018357904205764</v>
+        <v>2.031827118124115</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.259938306177371</v>
+        <v>-6.153895747233986</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.033287863268164</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.23567090215339</v>
+        <v>-15.21283435107803</v>
       </c>
       <c r="F62" t="n">
-        <v>2.041526907748074</v>
+        <v>2.072889886799334</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.344537681002468</v>
+        <v>-6.24073428720413</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.02555581064825</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.14606029528971</v>
+        <v>-15.10700690843679</v>
       </c>
       <c r="F63" t="n">
-        <v>2.004566015834197</v>
+        <v>2.036598788826224</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.410529495692085</v>
+        <v>-6.296605857679233</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.977833523962621</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.19039380955889</v>
+        <v>-15.17711526690835</v>
       </c>
       <c r="F64" t="n">
-        <v>1.856052654237922</v>
+        <v>1.882717297690076</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.400326138360834</v>
+        <v>-6.290215925704175</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8916999571705084</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.1984313368481</v>
+        <v>-15.16707324680371</v>
       </c>
       <c r="F65" t="n">
-        <v>1.862144356794098</v>
+        <v>1.901618198237569</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.49495775527684</v>
+        <v>-6.372791251686369</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7708555727521953</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.1899049088722</v>
+        <v>-15.15275823469738</v>
       </c>
       <c r="F66" t="n">
-        <v>1.910359742515613</v>
+        <v>1.940720475159155</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.409629918428573</v>
+        <v>-6.267164258326671</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6199505161347469</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.05761327206035</v>
+        <v>-15.01030724161608</v>
       </c>
       <c r="F67" t="n">
-        <v>1.721262734917076</v>
+        <v>1.751946142013835</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.214548766424933</v>
+        <v>-6.080369972962452</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4429432829299368</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.15869837804068</v>
+        <v>-15.10974964128913</v>
       </c>
       <c r="F68" t="n">
-        <v>1.688081045311325</v>
+        <v>1.714115006877647</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.33565924453215</v>
+        <v>-6.194958515909205</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2459786252629298</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.05892352590068</v>
+        <v>-14.9981727265724</v>
       </c>
       <c r="F69" t="n">
-        <v>1.677750573801533</v>
+        <v>1.723027666396033</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.109112444333045</v>
+        <v>-5.933201088254578</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0349356573915384</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.10039208214585</v>
+        <v>-15.04299025252141</v>
       </c>
       <c r="F70" t="n">
-        <v>1.555882299629945</v>
+        <v>1.578029500737069</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.087312362713472</v>
+        <v>-5.919531425054684</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1864398100847756</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.11256082023761</v>
+        <v>-15.06784107442594</v>
       </c>
       <c r="F71" t="n">
-        <v>1.458517727875333</v>
+        <v>1.487837102056222</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.056853849932591</v>
+        <v>-5.855896111674919</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.4122083394043544</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.21998696812433</v>
+        <v>-15.17951576928001</v>
       </c>
       <c r="F72" t="n">
-        <v>1.373693458734359</v>
+        <v>1.400494994378787</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.913200161162029</v>
+        <v>-5.706155609355048</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.6368695213915202</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.34317038514312</v>
+        <v>-15.30407788623527</v>
       </c>
       <c r="F73" t="n">
-        <v>1.292985733375327</v>
+        <v>1.322701117112436</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.059454801585789</v>
+        <v>-5.863332291119496</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.8571392936841387</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.47916788916009</v>
+        <v>-15.45100232059979</v>
       </c>
       <c r="F74" t="n">
-        <v>1.176246027407132</v>
+        <v>1.219635963351002</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.960594193729903</v>
+        <v>-5.754943008879993</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.066940759878762</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.70566579929053</v>
+        <v>-15.66621640288139</v>
       </c>
       <c r="F75" t="n">
-        <v>1.10492030622571</v>
+        <v>1.118384631137193</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.994098557788871</v>
+        <v>-5.778248904614576</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.260692219103362</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.73298556966285</v>
+        <v>-15.69115522690952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9194313856949565</v>
+        <v>0.9415883648158151</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.103392306298755</v>
+        <v>-5.879583349945122</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.435348441590536</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.80015563500739</v>
+        <v>-15.76372275583514</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7554296503442947</v>
+        <v>0.7802364711870211</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.023784607484778</v>
+        <v>-5.797257363313141</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.586735328699616</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.95354822545685</v>
+        <v>-15.92360305839699</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7681801802532088</v>
+        <v>0.796795537445262</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.001045836546757</v>
+        <v>-5.773922133537356</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.71139485815452</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06403978064913</v>
+        <v>-16.02720600291379</v>
       </c>
       <c r="F79" t="n">
-        <v>0.490758374596987</v>
+        <v>0.5249912006791254</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.02297303234487</v>
+        <v>-5.797384477491681</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.808487235225171</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55858727027191</v>
+        <v>-16.53101327154251</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4744242026546241</v>
+        <v>0.5061098561591</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.956096307412341</v>
+        <v>-5.743752072161624</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.876588885674919</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.07207477249712</v>
+        <v>-17.05718285758049</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3054259022859752</v>
+        <v>0.3475740304856489</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.029959423157692</v>
+        <v>-5.803461513027257</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.914417766994745</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.49283737048442</v>
+        <v>-17.47407825113607</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01120084943603764</v>
+        <v>0.02206884229331859</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.070210616693003</v>
+        <v>-5.839513049663887</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.92194491473899</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.9991771446702</v>
+        <v>-17.98122960046176</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01370402095189809</v>
+        <v>0.02363332449073137</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.092934720610423</v>
+        <v>-5.855113870576212</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.899599977670278</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.79553769520824</v>
+        <v>-18.80782865847166</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1086925353691886</v>
+        <v>-0.06055537375754404</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.092392040848196</v>
+        <v>-5.861508691558138</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.848124174237077</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.47526609792916</v>
+        <v>-19.45822790899796</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2753930025103876</v>
+        <v>-0.2353911483252895</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.18195375764321</v>
+        <v>-5.950454393487921</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.76847485133818</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.14191151827421</v>
+        <v>-20.14540226917719</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.400913364811562</v>
+        <v>-0.3488405526720509</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.407288084139321</v>
+        <v>-6.161082587328351</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.662529833468053</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88676149246244</v>
+        <v>-20.87214336193037</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4979797071472913</v>
+        <v>-0.4615810510231096</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.739095202183105</v>
+        <v>-6.507600727034681</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.532652752598141</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.71306232105347</v>
+        <v>-21.70201316553424</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6212804603308864</v>
+        <v>-0.5755682461252316</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.992252866758827</v>
+        <v>-6.757492535023306</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.379720173744241</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70263153396512</v>
+        <v>-22.6890254278545</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8447129631557664</v>
+        <v>-0.7941850771862005</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.029859107579137</v>
+        <v>-6.785731438686606</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.205847666780091</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.77704946105209</v>
+        <v>-23.76655765231569</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.114258578749388</v>
+        <v>-1.071323320444141</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.421473446625892</v>
+        <v>-7.191406561482608</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.014405850186669</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.0099592127507</v>
+        <v>-25.00937253192667</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.079111508383137</v>
+        <v>-1.054896257371307</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.776053558655765</v>
+        <v>-7.542129247094485</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.8062086934697231</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25842089529297</v>
+        <v>-26.23068555933696</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.307569910267205</v>
+        <v>-1.28271419935581</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.08674994504821</v>
+        <v>-7.864666808118598</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5840298226370391</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.53765887606247</v>
+        <v>-27.52125625802396</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.568017084081498</v>
+        <v>-1.542965812895426</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.410294641486907</v>
+        <v>-8.212592981802601</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3528005814548408</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.02541055520245</v>
+        <v>-29.01236179587465</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.850254561501631</v>
+        <v>-1.838305828718891</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.742937779704933</v>
+        <v>-8.539379089794062</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1145696213158366</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.63446338371746</v>
+        <v>-30.60791607643012</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.131108449978428</v>
+        <v>-2.124698961975902</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.06088945228788</v>
+        <v>-8.86365224825593</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1271053231783788</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.4604634474484</v>
+        <v>-32.41731796184787</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.172992571807288</v>
+        <v>-2.181489665741986</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.428034311965725</v>
+        <v>-9.235911009116569</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3648432879755018</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.16783175955364</v>
+        <v>-34.109481462597</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.540161876519468</v>
+        <v>-2.554408442529657</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.836505946689602</v>
+        <v>-9.664471573056598</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5959283953649204</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.15657219486356</v>
+        <v>-36.09170485175333</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.934611839549032</v>
+        <v>-2.943798283451966</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.30122071641047</v>
+        <v>-10.10968898339221</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.8138640825584887</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.22927154509902</v>
+        <v>-38.14621465194044</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.202710309110048</v>
+        <v>-3.213617683430134</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.66845846721879</v>
+        <v>-10.48918836342275</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.014152951230521</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.42424006806916</v>
+        <v>-40.3371155211973</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.567381331313233</v>
+        <v>-3.583172823493369</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.82839743786304</v>
+        <v>-10.63216248023881</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.188579098990819</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.33163231812049</v>
+        <v>-42.23495220732725</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.027857332080485</v>
+        <v>-4.029304478113091</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.10775040123169</v>
+        <v>-10.92121523323142</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.340380670726589</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.56257170911395</v>
+        <v>-44.44535043596937</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.25237519442982</v>
+        <v>-4.252096521038406</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.25515395826918</v>
+        <v>-11.07702299307313</v>
       </c>
     </row>
   </sheetData>
